--- a/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
@@ -5,26 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C Sharp\xQuantLogFactory\ReportTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE55209-9B74-42B5-BED7-83E2433ED5B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2387CA7-F4E0-469E-B31C-B220C6B10DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
-    <sheet name="分析" sheetId="3" r:id="rId2"/>
+    <sheet name="内存" sheetId="4" r:id="rId2"/>
+    <sheet name="分析" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>事项</t>
   </si>
@@ -41,15 +42,6 @@
     <t>耗时</t>
   </si>
   <si>
-    <t>开始日志</t>
-  </si>
-  <si>
-    <t>结束日志</t>
-  </si>
-  <si>
-    <t>日志行</t>
-  </si>
-  <si>
     <t>求和项:耗时</t>
   </si>
   <si>
@@ -64,21 +56,17 @@
   <si>
     <t>(空白)</t>
   </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -92,13 +80,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,7 +124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,16 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,7 +521,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -843,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,297 +867,327 @@
     <col min="4" max="4" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1156,37 +1198,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2387CA7-F4E0-469E-B31C-B220C6B10DE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70893AB1-391C-46BA-B083-CA038953219A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>事项</t>
   </si>
@@ -57,7 +57,19 @@
     <t>(空白)</t>
   </si>
   <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +102,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -124,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -147,6 +167,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,15 +885,16 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1148,37 +1178,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E2" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1186,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70893AB1-391C-46BA-B083-CA038953219A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA0924-D583-44AA-BBBD-425DF10134D8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>事项</t>
   </si>
@@ -70,6 +70,22 @@
   </si>
   <si>
     <t>结果模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日志行号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +192,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,22 +907,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -913,144 +942,154 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
@@ -1058,8 +1097,8 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
@@ -1067,8 +1106,8 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
@@ -1076,8 +1115,8 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
@@ -1085,8 +1124,8 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -1094,8 +1133,8 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
@@ -1103,8 +1142,8 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
@@ -1112,8 +1151,8 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
@@ -1121,8 +1160,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
@@ -1130,8 +1169,8 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
@@ -1139,8 +1178,8 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
@@ -1148,8 +1187,8 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
@@ -1157,8 +1196,8 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
@@ -1166,8 +1205,8 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA0924-D583-44AA-BBBD-425DF10134D8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ADE27F-D35A-44A5-AECB-385605237B9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -922,7 +922,7 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="9" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="29.625" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/Resources/xQuant_EXCEL_Templet.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ADE27F-D35A-44A5-AECB-385605237B9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A615FF-CDD6-408B-8988-6B0FECCF862A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
     <sheet name="内存" sheetId="4" r:id="rId2"/>
-    <sheet name="分析" sheetId="3" r:id="rId3"/>
+    <sheet name="中间件日志" sheetId="5" r:id="rId3"/>
+    <sheet name="分析" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>事项</t>
   </si>
@@ -87,13 +88,41 @@
   <si>
     <t>开始日志行号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>流长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +157,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -910,7 +945,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,8 +1263,8 @@
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1242,11 +1277,11 @@
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
@@ -1255,7 +1290,7 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1265,11 +1300,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA889E2-CD83-488D-A979-42856335ED7B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
+        <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
